--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -8,131 +8,98 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16073\Desktop\Project\2DGame\2DGame\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FF005-7038-4078-AB44-723D7A60F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685245E0-3AA2-4C61-B6C5-21E1095905A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="5520" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2115" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TowerInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>叶挺</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{17038A3C-8583-4531-BA50-76381063199F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>叶挺:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+/// &lt;summary&gt;
+        /// 种子
+        /// &lt;/summary&gt;
+        Seed = 1,
+        /// &lt;summary&gt;
+        /// 商品
+        /// &lt;/summary&gt;
+        Commdity = 2,
+        /// &lt;summary&gt;
+        /// 家具
+        /// &lt;/summary&gt;
+        Furniture = 3,
+        /// &lt;summary&gt;
+        /// 锄头
+        /// &lt;/summary&gt;
+        HoeTool = 4,
+        /// &lt;summary&gt;
+        /// 砍树工具
+        /// &lt;/summary&gt;
+        ChopTool = 5,
+        /// &lt;summary&gt;
+        /// 砸石头工具
+        /// &lt;/summary&gt;
+        BreakTool = 6,
+        /// &lt;summary&gt;
+        /// 割草工具
+        /// &lt;/summary&gt;
+        ReapTool = 7,
+        /// &lt;summary&gt;
+        /// 浇水工具
+        /// &lt;/summary&gt;
+        WaterTool = 8,
+        /// &lt;summary&gt;
+        /// 菜篮子收割工具
+        /// &lt;/summary&gt;
+        ClooectTool = 9,
+        /// &lt;summary&gt;
+        /// 可以被割的杂草
+        /// &lt;/summary&gt;
+        ReapableSceney = 10,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>1|2|3</t>
-  </si>
-  <si>
-    <t>加农炮1</t>
-  </si>
-  <si>
-    <t>TowerImg/1_1</t>
-  </si>
-  <si>
-    <t>Tower/1_1</t>
-  </si>
-  <si>
-    <t>1|2|4</t>
-  </si>
-  <si>
-    <t>加农炮2</t>
-  </si>
-  <si>
-    <t>TowerImg/1_2</t>
-  </si>
-  <si>
-    <t>Tower/1_2</t>
-  </si>
-  <si>
-    <t>1|2|5</t>
-  </si>
-  <si>
-    <t>加农炮3</t>
-  </si>
-  <si>
-    <t>TowerImg/1_3</t>
-  </si>
-  <si>
-    <t>Tower/1_3</t>
-  </si>
-  <si>
-    <t>1|2|6</t>
-  </si>
-  <si>
-    <t>机枪炮1</t>
-  </si>
-  <si>
-    <t>TowerImg/2_1</t>
-  </si>
-  <si>
-    <t>Tower/2_1</t>
-  </si>
-  <si>
-    <t>1|2|7</t>
-  </si>
-  <si>
-    <t>机枪炮2</t>
-  </si>
-  <si>
-    <t>TowerImg/2_2</t>
-  </si>
-  <si>
-    <t>Tower/2_2</t>
-  </si>
-  <si>
-    <t>1|2|8</t>
-  </si>
-  <si>
-    <t>机枪炮3</t>
-  </si>
-  <si>
-    <t>TowerImg/2_3</t>
-  </si>
-  <si>
-    <t>Tower/2_3</t>
-  </si>
-  <si>
-    <t>1|2|9</t>
-  </si>
-  <si>
-    <t>魔法炮1</t>
-  </si>
-  <si>
-    <t>TowerImg/3_1</t>
-  </si>
-  <si>
-    <t>Tower/3_1</t>
-  </si>
-  <si>
-    <t>1|2|10</t>
-  </si>
-  <si>
-    <t>魔法炮2</t>
-  </si>
-  <si>
-    <t>TowerImg/3_2</t>
-  </si>
-  <si>
-    <t>Tower/3_2</t>
-  </si>
-  <si>
-    <t>1|2|11</t>
-  </si>
-  <si>
-    <t>魔法炮3</t>
-  </si>
-  <si>
-    <t>TowerImg/3_3</t>
-  </si>
-  <si>
-    <t>Tower/3_3</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +129,6 @@
   </si>
   <si>
     <t>itemOnWorldSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界地图的名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,6 +202,145 @@
   </si>
   <si>
     <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>icon_Chop</t>
+  </si>
+  <si>
+    <t>在世界地图中物品的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一把斧头</t>
+  </si>
+  <si>
+    <t>锄头</t>
+  </si>
+  <si>
+    <t>icon_Hoe</t>
+  </si>
+  <si>
+    <t>这是一把锄头</t>
+  </si>
+  <si>
+    <t>十字镐</t>
+  </si>
+  <si>
+    <t>icon_Pickaxe</t>
+  </si>
+  <si>
+    <t>这是一把十字镐</t>
+  </si>
+  <si>
+    <t>镰刀</t>
+  </si>
+  <si>
+    <t>icon_Reap</t>
+  </si>
+  <si>
+    <t>这是一把镰刀</t>
+  </si>
+  <si>
+    <t>菜篮子</t>
+  </si>
+  <si>
+    <t>icon_Basket</t>
+  </si>
+  <si>
+    <t>这是菜篮子</t>
+  </si>
+  <si>
+    <t>水壶</t>
+  </si>
+  <si>
+    <t>icon_WateringCan</t>
+  </si>
+  <si>
+    <t>这是水壶</t>
+  </si>
+  <si>
+    <t>土豆种子</t>
+  </si>
+  <si>
+    <t>这是一个土豆种子.可以用来种植</t>
+  </si>
+  <si>
+    <t>icon_PotatoSeed</t>
+  </si>
+  <si>
+    <t>白萝卜</t>
+  </si>
+  <si>
+    <t>icon_TurnipSeed</t>
+  </si>
+  <si>
+    <t>TurnipSeed_hold</t>
+  </si>
+  <si>
+    <t>PotatoSeed_hold</t>
+  </si>
+  <si>
+    <t>紫萝卜</t>
+  </si>
+  <si>
+    <t>icon_PinkRadishSeed</t>
+  </si>
+  <si>
+    <t>PinkRadishSeed_hold</t>
+  </si>
+  <si>
+    <t>紫萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>icon_GrapeSeed</t>
+  </si>
+  <si>
+    <t>GrapeSeed_hold</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>icon_Potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫萝卜种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Turnip</t>
+  </si>
+  <si>
+    <t>icon_PinkRadish</t>
+  </si>
+  <si>
+    <t>icon_Grape</t>
+  </si>
+  <si>
+    <t>icon_NeedieWood</t>
+  </si>
+  <si>
+    <t>NeedieWood_Harvest</t>
+  </si>
+  <si>
+    <t>针叶木头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +370,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,20 +722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -630,51 +747,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -686,407 +803,636 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>400</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0.2</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>400</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
+        <v>1008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
+        <v>1009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>400</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
       </c>
       <c r="L12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
         <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16073\Desktop\Project\2DGame\2DGame\Assets\Editor\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685245E0-3AA2-4C61-B6C5-21E1095905A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2115" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16545" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>叶挺</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{17038A3C-8583-4531-BA50-76381063199F}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>叶挺:</t>
@@ -41,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -95,114 +85,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+  <si>
+    <t>itemID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>itemIcon</t>
+  </si>
+  <si>
+    <t>itemOnWorldSprite</t>
+  </si>
+  <si>
+    <t>itemDescription</t>
+  </si>
+  <si>
+    <t>itemUseRadiue</t>
+  </si>
+  <si>
+    <t>canPickedup</t>
+  </si>
+  <si>
+    <t>canDropped</t>
+  </si>
+  <si>
+    <t>canCarried</t>
+  </si>
+  <si>
+    <t>itemPrice</t>
+  </si>
+  <si>
+    <t>sellPercentage</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>物品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
   </si>
   <si>
     <t>图片名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemOnWorldSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在世界地图中物品的名称</t>
   </si>
   <si>
     <t>详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemUseRadiue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canPickedup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canDropped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canCarried</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否可以拾取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否可以扔在地上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否可以举着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellPercentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">售卖时候折扣的百分比
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖时候折扣的百分比</t>
   </si>
   <si>
     <t>斧头</t>
@@ -211,10 +177,6 @@
     <t>icon_Chop</t>
   </si>
   <si>
-    <t>在世界地图中物品的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一把斧头</t>
   </si>
   <si>
@@ -266,63 +228,55 @@
     <t>土豆种子</t>
   </si>
   <si>
+    <t>icon_PotatoSeed</t>
+  </si>
+  <si>
+    <t>PotatoSeed_hold</t>
+  </si>
+  <si>
     <t>这是一个土豆种子.可以用来种植</t>
   </si>
   <si>
-    <t>icon_PotatoSeed</t>
+    <t>白萝卜种子</t>
+  </si>
+  <si>
+    <t>icon_TurnipSeed</t>
+  </si>
+  <si>
+    <t>TurnipSeed_hold</t>
   </si>
   <si>
     <t>白萝卜</t>
   </si>
   <si>
-    <t>icon_TurnipSeed</t>
-  </si>
-  <si>
-    <t>TurnipSeed_hold</t>
-  </si>
-  <si>
-    <t>PotatoSeed_hold</t>
+    <t>紫萝卜种子</t>
+  </si>
+  <si>
+    <t>icon_PinkRadishSeed</t>
+  </si>
+  <si>
+    <t>PinkRadishSeed_hold</t>
   </si>
   <si>
     <t>紫萝卜</t>
   </si>
   <si>
-    <t>icon_PinkRadishSeed</t>
-  </si>
-  <si>
-    <t>PinkRadishSeed_hold</t>
-  </si>
-  <si>
-    <t>紫萝卜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>葡萄种子</t>
+  </si>
+  <si>
+    <t>icon_GrapeSeed</t>
+  </si>
+  <si>
+    <t>GrapeSeed_hold</t>
   </si>
   <si>
     <t>葡萄</t>
   </si>
   <si>
-    <t>icon_GrapeSeed</t>
-  </si>
-  <si>
-    <t>GrapeSeed_hold</t>
-  </si>
-  <si>
     <t>土豆</t>
   </si>
   <si>
     <t>icon_Potato</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白萝卜种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫萝卜种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icon_Turnip</t>
@@ -334,21 +288,41 @@
     <t>icon_Grape</t>
   </si>
   <si>
+    <t>木头</t>
+  </si>
+  <si>
     <t>icon_NeedieWood</t>
   </si>
   <si>
     <t>NeedieWood_Harvest</t>
   </si>
   <si>
-    <t>针叶木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>松子</t>
+  </si>
+  <si>
+    <t>icon_NeedieSeed</t>
+  </si>
+  <si>
+    <t>Tree01_Fruitage</t>
+  </si>
+  <si>
+    <t>针叶树根</t>
+  </si>
+  <si>
+    <t>Tree01_Trunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,45 +331,356 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -403,9 +688,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -413,24 +940,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -717,163 +1288,165 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -897,7 +1470,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -935,7 +1508,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -973,7 +1546,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1011,7 +1584,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1049,7 +1622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1087,7 +1660,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -1098,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1125,24 +1698,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1163,24 +1736,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1201,24 +1774,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1239,24 +1812,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1277,24 +1850,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1315,24 +1888,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1353,24 +1926,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1391,12 +1964,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1408,7 +1981,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1429,10 +2002,86 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16545" windowHeight="6255"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>itemID</t>
   </si>
@@ -310,6 +310,51 @@
   </si>
   <si>
     <t>Tree01_Trunk</t>
+  </si>
+  <si>
+    <t>阔叶树种子</t>
+  </si>
+  <si>
+    <t>icon_BroadleafSeed</t>
+  </si>
+  <si>
+    <t>Tree02_Fruitage</t>
+  </si>
+  <si>
+    <t>阔叶树根</t>
+  </si>
+  <si>
+    <t>Tree02_Trunk</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>icon_Chair</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>icon_Grass</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>icon_pumpkin</t>
+  </si>
+  <si>
+    <t>岩石</t>
+  </si>
+  <si>
+    <t>icon_Rock</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>icon_Table</t>
   </si>
 </sst>
 </file>
@@ -317,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -331,9 +376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +385,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,14 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -369,15 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,29 +423,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,8 +444,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,6 +461,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -454,13 +484,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -469,7 +506,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,55 +540,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,121 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,15 +731,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,6 +745,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,26 +781,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,17 +815,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,145 +839,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,20 +1339,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
@@ -2078,6 +2123,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>1020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>1021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>1022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>1023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>itemID</t>
   </si>
@@ -345,16 +345,31 @@
     <t>icon_pumpkin</t>
   </si>
   <si>
-    <t>岩石</t>
+    <t>岩石1</t>
+  </si>
+  <si>
+    <t>Rock01</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>icon_Table</t>
+  </si>
+  <si>
+    <t>岩石2</t>
+  </si>
+  <si>
+    <t>Rock02</t>
+  </si>
+  <si>
+    <t>小石头</t>
   </si>
   <si>
     <t>icon_Rock</t>
   </si>
   <si>
-    <t>桌子</t>
-  </si>
-  <si>
-    <t>icon_Table</t>
+    <t>Rock_Harvest</t>
   </si>
 </sst>
 </file>
@@ -362,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -373,6 +388,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,16 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +453,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,14 +507,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -492,14 +515,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,187 +555,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +760,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,21 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -839,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,37 +866,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,94 +899,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,12 +1354,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2333,16 +2348,16 @@
         <v>86</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K26">
         <v>20</v>
@@ -2386,6 +2401,82 @@
         <v>20</v>
       </c>
       <c r="L27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>1025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>1026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
         <v>0.4</v>
       </c>
     </row>

--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18225" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -37,46 +37,16 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-/// &lt;summary&gt;
-        /// 种子
-        /// &lt;/summary&gt;
-        Seed = 1,
-        /// &lt;summary&gt;
-        /// 商品
-        /// &lt;/summary&gt;
-        Commdity = 2,
-        /// &lt;summary&gt;
-        /// 家具
-        /// &lt;/summary&gt;
-        Furniture = 3,
-        /// &lt;summary&gt;
-        /// 锄头
-        /// &lt;/summary&gt;
-        HoeTool = 4,
-        /// &lt;summary&gt;
-        /// 砍树工具
-        /// &lt;/summary&gt;
-        ChopTool = 5,
-        /// &lt;summary&gt;
-        /// 砸石头工具
-        /// &lt;/summary&gt;
-        BreakTool = 6,
-        /// &lt;summary&gt;
-        /// 割草工具
-        /// &lt;/summary&gt;
-        ReapTool = 7,
-        /// &lt;summary&gt;
-        /// 浇水工具
-        /// &lt;/summary&gt;
-        WaterTool = 8,
-        /// &lt;summary&gt;
-        /// 菜篮子收割工具
-        /// &lt;/summary&gt;
-        ClooectTool = 9,
-        /// &lt;summary&gt;
-        /// 可以被割的杂草
-        /// &lt;/summary&gt;
-        ReapableSceney = 10,</t>
+Seed = 1,               // 种子
+Commdity = 2,           // 商品
+Furniture = 3,          // 家具
+HoeTool = 4,            // 锄头
+ChopTool = 5,           // 砍树工具
+BreakTool = 6,          // 砸石头工具
+ReapTool = 7,           // 割草工具
+WaterTool = 8,          // 浇水工具         
+ClooectTool = 9,        // 菜篮子收割工具
+ReapableSceney = 10,    // 可以被割的杂草</t>
         </r>
       </text>
     </comment>
@@ -85,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>itemID</t>
   </si>
@@ -370,6 +340,33 @@
   </si>
   <si>
     <t>Rock_Harvest</t>
+  </si>
+  <si>
+    <t>杂草1</t>
+  </si>
+  <si>
+    <t>Grass01</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>杂草2</t>
+  </si>
+  <si>
+    <t>Grass02</t>
+  </si>
+  <si>
+    <t>杂草3</t>
+  </si>
+  <si>
+    <t>Grass03</t>
+  </si>
+  <si>
+    <t>一捆草</t>
+  </si>
+  <si>
+    <t>Grass_Harvest</t>
   </si>
 </sst>
 </file>
@@ -377,8 +374,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -391,9 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +398,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,14 +419,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,18 +448,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,14 +475,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,21 +503,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,6 +511,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,73 +552,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,97 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,17 +746,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,16 +773,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,22 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,145 +851,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,12 +1351,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2480,6 +2477,158 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>1027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>1028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>1029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>1030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>itemID</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>Grass01</t>
-  </si>
-  <si>
-    <t>空</t>
   </si>
   <si>
     <t>杂草2</t>
@@ -374,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -388,24 +385,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,15 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,24 +420,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +456,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,20 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -526,7 +501,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,19 +549,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,163 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,32 +740,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -843,6 +814,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,7 +1353,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2491,7 +2488,7 @@
         <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>95</v>
@@ -2520,19 +2517,19 @@
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
         <v>97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2558,19 +2555,19 @@
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2596,7 +2593,7 @@
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2605,10 +2602,10 @@
         <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33">
         <v>2</v>

--- a/Assets/Editor/Excels/ItemDetails.xlsx
+++ b/Assets/Editor/Excels/ItemDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10350"/>
+    <workbookView windowWidth="21840" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -371,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -400,7 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,16 +413,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,14 +441,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,6 +493,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -508,7 +508,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,25 +549,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,67 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +711,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,55 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +740,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,15 +763,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,28 +848,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,10 +881,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,97 +899,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,7 +1353,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2608,7 +2608,7 @@
         <v>101</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
